--- a/Faker库的使用/随机名字.xlsx
+++ b/Faker库的使用/随机名字.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,370 +461,740 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>丁淑珍</t>
+          <t>杨桂香</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>梁怡安</t>
+          <t>趙怡婷</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Brenda Walters MD</t>
+          <t>David Dominguez</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Wanda Schäfer</t>
+          <t>Grzegorz Buchholz B.Eng.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Gilles du Fournier</t>
+          <t>Jacqueline Besson Le Devaux</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>林 太郎</t>
+          <t>清水 香織</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>오예준</t>
+          <t>이경숙</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>罗小红</t>
+          <t>卜莹</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>高志偉</t>
+          <t>孫中山</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rhonda Nelson</t>
+          <t>Nicole Wilkerson DDS</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Dipl.-Ing. Gordon Wagenknecht MBA.</t>
+          <t>Metin Mitschke</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>François Martinez de Collet</t>
+          <t>Georges Bonnin</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>山口 裕美子</t>
+          <t>坂本 亮介</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>박지아</t>
+          <t>김영환</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>汤秀荣</t>
+          <t>朱成</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>嚴懿</t>
+          <t>曾郁雯</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Beverly Mendoza</t>
+          <t>Brenda Spencer</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Bozena Radisch</t>
+          <t>Herr Ehrenfried Trapp B.A.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dorothée de la Briand</t>
+          <t>Bernadette Roger</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>西村 浩</t>
+          <t>斎藤 修平</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>안재호</t>
+          <t>황지훈</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>姚坤</t>
+          <t>孙琴</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>李信宏</t>
+          <t>瞿俊宏</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sandra Sanders</t>
+          <t>Taylor Brown</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Ulrich Naser</t>
+          <t>Gisela Cichorius</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Élisabeth Imbert</t>
+          <t>Guy Briand</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>中村 陽子</t>
+          <t>田中 英樹</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>김경희</t>
+          <t>류미숙</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>周婷</t>
+          <t>邱明</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>孫建宏</t>
+          <t>丁庭瑋</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Samuel Reeves</t>
+          <t>Eric Crawford</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Dr. Amalia Faust</t>
+          <t>Reinhilde Wirth MBA.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Joseph Lebreton</t>
+          <t>Élisabeth Vallet</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>渡辺 翼</t>
+          <t>林 里佳</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>김진우</t>
+          <t>류지후</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>何玲</t>
+          <t>景海燕</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>劉怡婷</t>
+          <t>嶽信宏</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Daniel Hernandez</t>
+          <t>Brianna Kelly</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Edeltraut Kranz</t>
+          <t>Ing. Giovanna Fröhlich</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Maurice David</t>
+          <t>Valentine Marie</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>佐藤 太郎</t>
+          <t>岡本 花子</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>이선영</t>
+          <t>이재호</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>梁杰</t>
+          <t>姚红霞</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>梁懿</t>
+          <t>梁筱涵</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>William Watts</t>
+          <t>Bryan Frazier</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Friedrich-Karl Lindner MBA.</t>
+          <t>Nurten Striebitz B.A.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Marcelle Laroche</t>
+          <t>Camille Le Gall</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>石川 篤司</t>
+          <t>近藤 千代</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>이상철</t>
+          <t>강영희</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>黄建平</t>
+          <t>王敏</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>王哲瑋</t>
+          <t>劉淑華</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Tonya Haas</t>
+          <t>Patricia Gonzales</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Ira Bauer</t>
+          <t>Helma Karz</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Agathe Joubert</t>
+          <t>Philippe Dufour de la Delaunay</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>林 七夏</t>
+          <t>渡辺 直子</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>고지아</t>
+          <t>김현우</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>王勇</t>
+          <t>魏小红</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>劉雅芳</t>
+          <t>徐淑貞</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Anna Floyd</t>
+          <t>David Garcia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Fritz Boucsein B.A.</t>
+          <t>Bert Linke MBA.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Gilles Mary</t>
+          <t>Paulette-Adèle Gonzalez</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>加藤 美加子</t>
+          <t>小川 裕樹</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>이현우</t>
+          <t>권정숙</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>唐斌</t>
+          <t>陶兰英</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>杜冠廷</t>
+          <t>劉馨儀</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Patricia Lam</t>
+          <t>Michael Bennett</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Martha Rohleder</t>
+          <t>Jolanta Adler</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Adrienne Carpentier-Pelletier</t>
+          <t>Aurore Allain</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>伊藤 太一</t>
+          <t>佐々木 春香</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>장준서</t>
+          <t>백민지</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>李艳</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>徐靜宜</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Matthew Gonzalez</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Herr Imre Pruschke B.Sc.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Patrick-Gérard Godard</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>斎藤 裕太</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>노재현</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>冯畅</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>鞠詩涵</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Jose Perez</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Ing. Madeleine Oestrovsky</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Laurent Bertin</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>鈴木 結衣</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>이영순</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>毕佳</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>卿佳玲</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Laura Jackson</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Delia Wulf</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Stéphanie-Alex Raymond</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>三浦 七夏</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>박정희</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>范秀英</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>楊思穎</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Monica Wood</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Dr. Kathy Bolnbach B.Sc.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Alfred Allain</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>木村 拓真</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>송옥순</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>戴强</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>李懿</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Miguel Wilson</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Bastian Weitzel</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Denis Moulin du Breton</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>松本 浩</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>김예준</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>秦建军</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>邱美玲</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Eric Prince</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Hans-Dietrich Binner B.A.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Lucas Joly-Lecomte</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>山口 陽一</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>김경수</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>李帆</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>宋俊宏</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Susan Adams</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Paulo Adler B.A.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Bertrand Grenier Le Allain</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>山田 春香</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>최준서</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>杨婷</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>張威廷</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Heidi Wise</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Univ.Prof. Leila Zänker B.Eng.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Valérie Besson-Texier</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>近藤 花子</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>오우진</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>黄坤</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>王雅琪</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Zachary Martinez</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Jane Berger</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Suzanne Teixeira</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>山崎 浩</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>김서연</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>邵红</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>張慧君</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Deborah Reese</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Clemens Conradi</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Alice Gonzalez-Hardy</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>高橋 英樹</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>김지우</t>
         </is>
       </c>
     </row>
